--- a/data/raw/Lernverhalten_4_Vorlesung_WS_22_23_apr_23.xlsx
+++ b/data/raw/Lernverhalten_4_Vorlesung_WS_22_23_apr_23.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\anki\r_anki\data\raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fridt\OneDrive\Desktop\Arbeit\anki\r_anki\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB40224-27B3-46B4-BF5E-5F4043B8915D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C042E1E6-51A6-4FEB-A18F-89C4499E0C68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{34BE4E81-AB79-4AD3-A77B-028F067CACB7}"/>
+    <workbookView xWindow="6480" yWindow="-18120" windowWidth="29040" windowHeight="17640" xr2:uid="{34BE4E81-AB79-4AD3-A77B-028F067CACB7}"/>
   </bookViews>
   <sheets>
     <sheet name="sys_43-Lernverhalten_Prop_deuti" sheetId="2" r:id="rId1"/>
@@ -1785,7 +1785,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
     <dxf>
@@ -1969,7 +1969,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2287,73 +2287,75 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2545E02-6529-48B3-8154-5E32C571A0E6}">
   <dimension ref="A1:BK237"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="BJ50" sqref="BJ50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" customWidth="1"/>
-    <col min="5" max="5" width="25.28515625" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="80.5703125" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="39.5703125" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="56.28515625" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="42.140625" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="29.42578125" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="20.5703125" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="45" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="74" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="12" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="48.140625" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="57" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="39.7109375" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="44.140625" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="27.28515625" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="60" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="44" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="21.7109375" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="48.85546875" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="56.28515625" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="62.5703125" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="54.7109375" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="51.5703125" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="51.85546875" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="80.5703125" hidden="1" customWidth="1"/>
-    <col min="31" max="31" width="19.28515625" hidden="1" customWidth="1"/>
-    <col min="32" max="32" width="21" hidden="1" customWidth="1"/>
-    <col min="33" max="33" width="35.5703125" hidden="1" customWidth="1"/>
-    <col min="34" max="34" width="27.7109375" hidden="1" customWidth="1"/>
-    <col min="35" max="35" width="5.140625" hidden="1" customWidth="1"/>
-    <col min="36" max="36" width="8.28515625" hidden="1" customWidth="1"/>
-    <col min="37" max="37" width="7.85546875" hidden="1" customWidth="1"/>
-    <col min="38" max="38" width="8" hidden="1" customWidth="1"/>
-    <col min="39" max="39" width="32.85546875" hidden="1" customWidth="1"/>
-    <col min="40" max="40" width="38.85546875" hidden="1" customWidth="1"/>
-    <col min="41" max="41" width="57" hidden="1" customWidth="1"/>
-    <col min="42" max="42" width="80.5703125" hidden="1" customWidth="1"/>
-    <col min="43" max="43" width="38.42578125" hidden="1" customWidth="1"/>
-    <col min="44" max="44" width="25.42578125" hidden="1" customWidth="1"/>
-    <col min="45" max="45" width="46" hidden="1" customWidth="1"/>
-    <col min="46" max="46" width="70.28515625" hidden="1" customWidth="1"/>
-    <col min="47" max="49" width="80.5703125" hidden="1" customWidth="1"/>
-    <col min="50" max="50" width="21.140625" hidden="1" customWidth="1"/>
-    <col min="51" max="51" width="80.5703125" hidden="1" customWidth="1"/>
-    <col min="52" max="52" width="79.28515625" hidden="1" customWidth="1"/>
-    <col min="53" max="53" width="50.140625" hidden="1" customWidth="1"/>
-    <col min="54" max="54" width="71.85546875" hidden="1" customWidth="1"/>
-    <col min="55" max="55" width="69.7109375" hidden="1" customWidth="1"/>
-    <col min="56" max="56" width="52.28515625" hidden="1" customWidth="1"/>
-    <col min="57" max="57" width="24.5703125" hidden="1" customWidth="1"/>
-    <col min="58" max="58" width="29.7109375" hidden="1" customWidth="1"/>
-    <col min="59" max="59" width="18.85546875" hidden="1" customWidth="1"/>
-    <col min="60" max="60" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="148.33203125" customWidth="1"/>
+    <col min="5" max="5" width="27" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="90.86328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="42.59765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="59.53125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="45.265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.59765625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.06640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="46.06640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="78.06640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.73046875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="51.265625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="60.73046875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="41.796875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="46.86328125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="29.3984375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="63.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="47.1328125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22.59765625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="51.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="60.06640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="67" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="58.33203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="57.265625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="56.06640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="88.33203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="20.73046875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="21.53125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="38.06640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="28.73046875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="5.53125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="8.86328125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="8.46484375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="35.265625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="41.9296875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="60.46484375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="101.3984375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="41.3984375" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="27.265625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="47.1328125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="75.265625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="86.59765625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="97.3984375" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="116.59765625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="22.73046875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="87.1328125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="84.86328125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="53.796875" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="77.265625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="75" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="53.9296875" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="26.46484375" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="31.9296875" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="19.9296875" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="16.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:63" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2545,7 +2547,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="2" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:63" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>210</v>
       </c>
@@ -2724,7 +2726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:63" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>218</v>
       </c>
@@ -2909,7 +2911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:63" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>62</v>
       </c>
@@ -3088,7 +3090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:63" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>9</v>
       </c>
@@ -3276,7 +3278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:63" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>179</v>
       </c>
@@ -3455,7 +3457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:63" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>243</v>
       </c>
@@ -3634,7 +3636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:63" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>123</v>
       </c>
@@ -3813,7 +3815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:63" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>213</v>
       </c>
@@ -3998,7 +4000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:63" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>78</v>
       </c>
@@ -4183,7 +4185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:63" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>237</v>
       </c>
@@ -4362,7 +4364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:63" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>120</v>
       </c>
@@ -4541,7 +4543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:63" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>32</v>
       </c>
@@ -4723,7 +4725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:63" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>144</v>
       </c>
@@ -4902,7 +4904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:63" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>165</v>
       </c>
@@ -5081,7 +5083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:63" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>175</v>
       </c>
@@ -5263,7 +5265,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>196</v>
       </c>
@@ -5439,7 +5441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>36</v>
       </c>
@@ -5627,7 +5629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>161</v>
       </c>
@@ -5812,7 +5814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>173</v>
       </c>
@@ -5994,7 +5996,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>121</v>
       </c>
@@ -6173,7 +6175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>67</v>
       </c>
@@ -6352,7 +6354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>64</v>
       </c>
@@ -6537,7 +6539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>216</v>
       </c>
@@ -6713,7 +6715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>169</v>
       </c>
@@ -6898,7 +6900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>188</v>
       </c>
@@ -7083,7 +7085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>257</v>
       </c>
@@ -7268,7 +7270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>157</v>
       </c>
@@ -7447,7 +7449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>254</v>
       </c>
@@ -7632,7 +7634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>92</v>
       </c>
@@ -7811,7 +7813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>238</v>
       </c>
@@ -7990,7 +7992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>155</v>
       </c>
@@ -8169,7 +8171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>177</v>
       </c>
@@ -8345,7 +8347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>230</v>
       </c>
@@ -8518,7 +8520,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>41</v>
       </c>
@@ -8706,7 +8708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>245</v>
       </c>
@@ -8885,7 +8887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>20</v>
       </c>
@@ -9067,7 +9069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>226</v>
       </c>
@@ -9246,7 +9248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>10</v>
       </c>
@@ -9434,7 +9436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>251</v>
       </c>
@@ -9613,7 +9615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>140</v>
       </c>
@@ -9792,7 +9794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>124</v>
       </c>
@@ -9971,7 +9973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>75</v>
       </c>
@@ -10147,7 +10149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>22</v>
       </c>
@@ -10335,7 +10337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>138</v>
       </c>
@@ -10520,7 +10522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>199</v>
       </c>
@@ -10705,7 +10707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>214</v>
       </c>
@@ -10884,7 +10886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>115</v>
       </c>
@@ -11066,7 +11068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>222</v>
       </c>
@@ -11245,7 +11247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>52</v>
       </c>
@@ -11427,7 +11429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>208</v>
       </c>
@@ -11609,7 +11611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>51</v>
       </c>
@@ -11791,7 +11793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>126</v>
       </c>
@@ -11976,7 +11978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>198</v>
       </c>
@@ -12161,7 +12163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>134</v>
       </c>
@@ -12346,7 +12348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>94</v>
       </c>
@@ -12531,7 +12533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>11</v>
       </c>
@@ -12713,7 +12715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>232</v>
       </c>
@@ -12898,7 +12900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>40</v>
       </c>
@@ -13086,7 +13088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>241</v>
       </c>
@@ -13271,7 +13273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>231</v>
       </c>
@@ -13450,7 +13452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>76</v>
       </c>
@@ -13629,7 +13631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>158</v>
       </c>
@@ -13814,7 +13816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>156</v>
       </c>
@@ -13993,7 +13995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>139</v>
       </c>
@@ -14172,7 +14174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>87</v>
       </c>
@@ -14357,7 +14359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>106</v>
       </c>
@@ -14542,7 +14544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>224</v>
       </c>
@@ -14727,7 +14729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>143</v>
       </c>
@@ -14912,7 +14914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>69</v>
       </c>
@@ -15091,7 +15093,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="71" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>99</v>
       </c>
@@ -15276,7 +15278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>83</v>
       </c>
@@ -15461,7 +15463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>125</v>
       </c>
@@ -15646,7 +15648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>182</v>
       </c>
@@ -15831,7 +15833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>152</v>
       </c>
@@ -16010,7 +16012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>24</v>
       </c>
@@ -16189,7 +16191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>202</v>
       </c>
@@ -16374,7 +16376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>5</v>
       </c>
@@ -16550,7 +16552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>58</v>
       </c>
@@ -16729,7 +16731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>91</v>
       </c>
@@ -16914,7 +16916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>68</v>
       </c>
@@ -17099,7 +17101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>233</v>
       </c>
@@ -17284,7 +17286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>66</v>
       </c>
@@ -17466,7 +17468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>164</v>
       </c>
@@ -17651,7 +17653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>6</v>
       </c>
@@ -17836,7 +17838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>203</v>
       </c>
@@ -18021,7 +18023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>219</v>
       </c>
@@ -18206,7 +18208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>80</v>
       </c>
@@ -18385,7 +18387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A89">
         <v>246</v>
       </c>
@@ -18546,7 +18548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A90">
         <v>27</v>
       </c>
@@ -18728,7 +18730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A91">
         <v>217</v>
       </c>
@@ -18907,7 +18909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>242</v>
       </c>
@@ -19083,7 +19085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A93">
         <v>154</v>
       </c>
@@ -19268,7 +19270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A94">
         <v>95</v>
       </c>
@@ -19441,7 +19443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A95">
         <v>3</v>
       </c>
@@ -19623,7 +19625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A96">
         <v>98</v>
       </c>
@@ -19796,7 +19798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A97">
         <v>244</v>
       </c>
@@ -19975,7 +19977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A98">
         <v>127</v>
       </c>
@@ -20160,7 +20162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A99">
         <v>248</v>
       </c>
@@ -20339,7 +20341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A100">
         <v>57</v>
       </c>
@@ -20518,7 +20520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A101">
         <v>8</v>
       </c>
@@ -20700,7 +20702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A102">
         <v>252</v>
       </c>
@@ -20879,7 +20881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A103">
         <v>250</v>
       </c>
@@ -21058,7 +21060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A104">
         <v>35</v>
       </c>
@@ -21240,7 +21242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A105">
         <v>166</v>
       </c>
@@ -21425,7 +21427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A106">
         <v>49</v>
       </c>
@@ -21607,7 +21609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A107">
         <v>117</v>
       </c>
@@ -21783,7 +21785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A108">
         <v>65</v>
       </c>
@@ -21962,7 +21964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A109">
         <v>162</v>
       </c>
@@ -22141,7 +22143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A110">
         <v>190</v>
       </c>
@@ -22326,7 +22328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A111">
         <v>16</v>
       </c>
@@ -22505,7 +22507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A112">
         <v>197</v>
       </c>
@@ -22681,7 +22683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A113">
         <v>107</v>
       </c>
@@ -22860,7 +22862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A114">
         <v>160</v>
       </c>
@@ -23033,7 +23035,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="115" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A115">
         <v>18</v>
       </c>
@@ -23221,7 +23223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A116">
         <v>187</v>
       </c>
@@ -23400,7 +23402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A117">
         <v>2</v>
       </c>
@@ -23582,7 +23584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A118">
         <v>159</v>
       </c>
@@ -23767,7 +23769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A119">
         <v>85</v>
       </c>
@@ -23943,7 +23945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A120">
         <v>146</v>
       </c>
@@ -24128,7 +24130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A121">
         <v>223</v>
       </c>
@@ -24307,7 +24309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A122">
         <v>82</v>
       </c>
@@ -24492,7 +24494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A123">
         <v>19</v>
       </c>
@@ -24674,7 +24676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A124">
         <v>172</v>
       </c>
@@ -24859,7 +24861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A125">
         <v>103</v>
       </c>
@@ -25044,7 +25046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A126">
         <v>26</v>
       </c>
@@ -25226,7 +25228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A127">
         <v>185</v>
       </c>
@@ -25408,7 +25410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A128">
         <v>84</v>
       </c>
@@ -25593,7 +25595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A129">
         <v>186</v>
       </c>
@@ -25778,7 +25780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A130">
         <v>100</v>
       </c>
@@ -25963,7 +25965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A131">
         <v>105</v>
       </c>
@@ -26142,7 +26144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A132">
         <v>79</v>
       </c>
@@ -26327,7 +26329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A133">
         <v>201</v>
       </c>
@@ -26512,7 +26514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A134">
         <v>1</v>
       </c>
@@ -26682,7 +26684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A135">
         <v>71</v>
       </c>
@@ -26867,7 +26869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A136">
         <v>145</v>
       </c>
@@ -27037,7 +27039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A137">
         <v>77</v>
       </c>
@@ -27216,7 +27218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A138">
         <v>249</v>
       </c>
@@ -27401,7 +27403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A139">
         <v>236</v>
       </c>
@@ -27583,7 +27585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A140">
         <v>97</v>
       </c>
@@ -27762,7 +27764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A141">
         <v>42</v>
       </c>
@@ -27941,7 +27943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A142">
         <v>102</v>
       </c>
@@ -28126,7 +28128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A143">
         <v>178</v>
       </c>
@@ -28311,7 +28313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A144">
         <v>14</v>
       </c>
@@ -28499,7 +28501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A145">
         <v>204</v>
       </c>
@@ -28678,7 +28680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A146">
         <v>129</v>
       </c>
@@ -28863,7 +28865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A147">
         <v>46</v>
       </c>
@@ -29045,7 +29047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A148">
         <v>130</v>
       </c>
@@ -29224,7 +29226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A149">
         <v>141</v>
       </c>
@@ -29403,7 +29405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A150">
         <v>128</v>
       </c>
@@ -29579,7 +29581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A151">
         <v>7</v>
       </c>
@@ -29758,7 +29760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A152">
         <v>191</v>
       </c>
@@ -29943,7 +29945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A153">
         <v>44</v>
       </c>
@@ -30131,7 +30133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A154">
         <v>228</v>
       </c>
@@ -30313,7 +30315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A155">
         <v>21</v>
       </c>
@@ -30495,7 +30497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A156">
         <v>195</v>
       </c>
@@ -30674,7 +30676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A157">
         <v>81</v>
       </c>
@@ -30859,7 +30861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A158">
         <v>15</v>
       </c>
@@ -31041,7 +31043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A159">
         <v>61</v>
       </c>
@@ -31226,7 +31228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A160">
         <v>114</v>
       </c>
@@ -31393,7 +31395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A161">
         <v>13</v>
       </c>
@@ -31575,7 +31577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A162">
         <v>113</v>
       </c>
@@ -31754,7 +31756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A163">
         <v>119</v>
       </c>
@@ -31939,7 +31941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A164">
         <v>54</v>
       </c>
@@ -32124,7 +32126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A165">
         <v>227</v>
       </c>
@@ -32309,7 +32311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A166">
         <v>180</v>
       </c>
@@ -32491,7 +32493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A167">
         <v>135</v>
       </c>
@@ -32676,7 +32678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A168">
         <v>104</v>
       </c>
@@ -32861,7 +32863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A169">
         <v>53</v>
       </c>
@@ -33037,7 +33039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A170">
         <v>55</v>
       </c>
@@ -33216,7 +33218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A171">
         <v>150</v>
       </c>
@@ -33401,7 +33403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A172">
         <v>168</v>
       </c>
@@ -33586,7 +33588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A173">
         <v>239</v>
       </c>
@@ -33765,7 +33767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A174">
         <v>221</v>
       </c>
@@ -33944,7 +33946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A175">
         <v>96</v>
       </c>
@@ -34129,7 +34131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A176">
         <v>132</v>
       </c>
@@ -34314,7 +34316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A177">
         <v>148</v>
       </c>
@@ -34490,7 +34492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A178">
         <v>122</v>
       </c>
@@ -34669,7 +34671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A179">
         <v>147</v>
       </c>
@@ -34848,7 +34850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A180">
         <v>220</v>
       </c>
@@ -35027,7 +35029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A181">
         <v>12</v>
       </c>
@@ -35215,7 +35217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A182">
         <v>151</v>
       </c>
@@ -35394,7 +35396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A183">
         <v>31</v>
       </c>
@@ -35576,7 +35578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A184">
         <v>90</v>
       </c>
@@ -35755,7 +35757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A185">
         <v>206</v>
       </c>
@@ -35934,7 +35936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A186">
         <v>47</v>
       </c>
@@ -36116,7 +36118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A187">
         <v>88</v>
       </c>
@@ -36295,7 +36297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A188">
         <v>247</v>
       </c>
@@ -36477,7 +36479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A189">
         <v>253</v>
       </c>
@@ -36656,7 +36658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A190">
         <v>33</v>
       </c>
@@ -36838,7 +36840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A191">
         <v>60</v>
       </c>
@@ -37023,7 +37025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A192">
         <v>183</v>
       </c>
@@ -37190,7 +37192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A193">
         <v>215</v>
       </c>
@@ -37369,7 +37371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A194">
         <v>43</v>
       </c>
@@ -37551,7 +37553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A195">
         <v>170</v>
       </c>
@@ -37733,7 +37735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A196">
         <v>194</v>
       </c>
@@ -37912,7 +37914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A197">
         <v>70</v>
       </c>
@@ -38091,7 +38093,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="198" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A198">
         <v>212</v>
       </c>
@@ -38270,7 +38272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A199">
         <v>56</v>
       </c>
@@ -38455,7 +38457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A200">
         <v>63</v>
       </c>
@@ -38640,7 +38642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A201">
         <v>112</v>
       </c>
@@ -38819,7 +38821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A202">
         <v>34</v>
       </c>
@@ -39004,7 +39006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A203">
         <v>229</v>
       </c>
@@ -39183,7 +39185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A204">
         <v>48</v>
       </c>
@@ -39371,7 +39373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A205">
         <v>45</v>
       </c>
@@ -39553,7 +39555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A206">
         <v>163</v>
       </c>
@@ -39738,7 +39740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A207">
         <v>39</v>
       </c>
@@ -39926,7 +39928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A208">
         <v>184</v>
       </c>
@@ -40105,7 +40107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A209">
         <v>207</v>
       </c>
@@ -40290,7 +40292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A210">
         <v>111</v>
       </c>
@@ -40469,7 +40471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A211">
         <v>4</v>
       </c>
@@ -40657,7 +40659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A212">
         <v>17</v>
       </c>
@@ -40845,7 +40847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A213">
         <v>192</v>
       </c>
@@ -41021,7 +41023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A214">
         <v>256</v>
       </c>
@@ -41206,7 +41208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A215">
         <v>174</v>
       </c>
@@ -41391,7 +41393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A216">
         <v>89</v>
       </c>
@@ -41576,7 +41578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A217">
         <v>72</v>
       </c>
@@ -41755,7 +41757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A218">
         <v>101</v>
       </c>
@@ -41934,7 +41936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A219">
         <v>93</v>
       </c>
@@ -42113,7 +42115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A220">
         <v>149</v>
       </c>
@@ -42292,7 +42294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A221">
         <v>110</v>
       </c>
@@ -42471,7 +42473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A222">
         <v>181</v>
       </c>
@@ -42656,7 +42658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A223">
         <v>59</v>
       </c>
@@ -42835,7 +42837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A224">
         <v>73</v>
       </c>
@@ -43020,7 +43022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A225">
         <v>234</v>
       </c>
@@ -43205,7 +43207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A226">
         <v>116</v>
       </c>
@@ -43384,7 +43386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A227">
         <v>29</v>
       </c>
@@ -43566,7 +43568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A228">
         <v>225</v>
       </c>
@@ -43751,7 +43753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A229">
         <v>28</v>
       </c>
@@ -43933,7 +43935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A230">
         <v>109</v>
       </c>
@@ -44112,7 +44114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A231">
         <v>50</v>
       </c>
@@ -44279,7 +44281,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="232" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A232">
         <v>74</v>
       </c>
@@ -44458,7 +44460,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="233" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A233">
         <v>136</v>
       </c>
@@ -44631,7 +44633,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="234" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A234">
         <v>142</v>
       </c>
@@ -44801,7 +44803,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="235" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A235">
         <v>205</v>
       </c>
@@ -44971,7 +44973,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="236" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A236">
         <v>189</v>
       </c>
@@ -45150,7 +45152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A237">
         <v>86</v>
       </c>
@@ -45349,7 +45351,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
